--- a/data/trans_bre/P23_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>19,44%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-79,25%</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>237,34%</t>
+          <t>-6,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>-78,79%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>260,65%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-9,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-16,13%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,23</t>
+          <t>-4,45; 3,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -0,55</t>
+          <t>-7,83; -0,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,18</t>
+          <t>-0,82; 4,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 7,35</t>
+          <t>-4,33; 2,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-7,19; 6,93</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 4,78</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-86,07; 438,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 35,24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 42,34</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-61,51; 244,95</t>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-67,69; 208,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-80,41; 246,38</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>287,35%</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>388,33%</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>66,89%</t>
+          <t>236,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-32,07%</t>
+          <t>395,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>62,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-24,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-32,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-17,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,92</t>
+          <t>0,11; 8,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,09</t>
+          <t>-0,06; 4,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,21</t>
+          <t>-1,83; 4,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 4,09</t>
+          <t>-5,81; 3,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-10,09; 3,35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 5,06</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-38,55; 1308,75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-43,39; 407,89</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-84,43; 119,82</t>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-51,86; 322,37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-88,84; 279,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-79,58; 103,18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-68,65; 111,17</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,33%</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-75,57%</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-31,21%</t>
+          <t>-23,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>-77,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-21,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-43,75%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-60,91%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,43</t>
+          <t>-6,41; 2,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -1,16</t>
+          <t>-12,03; -1,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 2,27</t>
+          <t>-10,03; 2,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,84</t>
+          <t>-10,44; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,89; 57,92</t>
+          <t>-4,11; 4,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-95,08; -28,42</t>
+          <t>-14,79; -0,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-79,02; 61,42</t>
+          <t>-65,89; 62,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,07; 134,89</t>
+          <t>-96,33; -33,87</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-79,3; 73,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-78,77; 29,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-50,14; 137,96</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-85,76; -3,63</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>181,43%</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>79,23%</t>
+          <t>163,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>16,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>82,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>93,42%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-29,05%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 9,8</t>
+          <t>1,36; 9,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,28</t>
+          <t>-4,17; 4,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 7,1</t>
+          <t>-0,63; 7,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,5</t>
+          <t>-0,26; 8,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,8; 520,24</t>
+          <t>0,29; 10,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,3; 132,72</t>
+          <t>-9,45; 2,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 272,86</t>
+          <t>18,03; 494,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 317,44</t>
+          <t>-51,85; 161,0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-18,29; 263,63</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 222,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 299,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-69,43; 29,17</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,44%</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>-24,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-43,28%</t>
+          <t>57,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,11%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-43,24%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 2,99</t>
+          <t>-8,02; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 5,24</t>
+          <t>-1,52; 5,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,48</t>
+          <t>-2,99; 4,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 0,37</t>
+          <t>-5,94; 6,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-71,32; 73,3</t>
+          <t>-12,35; 0,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,68; 262,88</t>
+          <t>-3,87; 9,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 155,82</t>
+          <t>-70,64; 64,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-71,24; 9,41</t>
+          <t>-33,53; 315,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-47,36; 169,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-62,34; 162,84</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-70,98; 7,45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-30,45; 130,62</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>2,86</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>68,21%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-76,75%</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>122,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>-75,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-22,2%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>57,04%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 7,48</t>
+          <t>-0,22; 10,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -1,02</t>
+          <t>-10,8; -1,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,44</t>
+          <t>-3,05; 3,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 8,96</t>
+          <t>-8,36; 4,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 471,38</t>
+          <t>-3,03; 9,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-94,91; -14,35</t>
+          <t>-4,69; 6,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,59; 253,12</t>
+          <t>-22,3; 569,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,95; 401,1</t>
+          <t>-95,17; -23,04</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-62,21; 302,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-74,06; 107,63</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-45,09; 364,89</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-62,52; 232,52</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1492,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1230,32 +1502,52 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-34,31%</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>-33,95%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29,94%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-6,48%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-19,74%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,77</t>
+          <t>0,07; 3,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,02</t>
+          <t>-3,33; -0,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,35</t>
+          <t>-0,74; 2,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,63</t>
+          <t>-2,91; 1,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 107,82</t>
+          <t>-1,78; 2,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-56,89; 3,54</t>
+          <t>-4,45; 0,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 79,82</t>
+          <t>-2,34; 113,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 44,04</t>
+          <t>-57,92; -1,25</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; 101,47</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-37,84; 36,65</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-21,19; 49,35</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-42,59; 9,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
